--- a/Documentazione prodotta/RiskManagement.xlsx
+++ b/Documentazione prodotta/RiskManagement.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27717"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07083a6163ddf17c/UNI Magistrale/Project Management/Project-Management-Project/Documentazione prodotta/"/>
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,6 +41,21 @@
     <t>PRE-MITIGAZIONE</t>
   </si>
   <si>
+    <t>MITIGAZIONE</t>
+  </si>
+  <si>
+    <t>POST-MITIGAZIONE</t>
+  </si>
+  <si>
+    <t>GRAVITA' DEL RISCHIO</t>
+  </si>
+  <si>
+    <t>PROBABILITA' DEL RISCHIO</t>
+  </si>
+  <si>
+    <t>LIVELLO DEL RISCHIO</t>
+  </si>
+  <si>
     <t>RISCHIO</t>
   </si>
   <si>
@@ -53,61 +68,46 @@
     <t>LIVELLO</t>
   </si>
   <si>
-    <t>MITIGAZIONE</t>
-  </si>
-  <si>
-    <t>POST-MITIGAZIONE</t>
-  </si>
-  <si>
-    <t>GRAVITA' DEL RISCHIO</t>
-  </si>
-  <si>
-    <t>PROBABILITA' DEL RISCHIO</t>
-  </si>
-  <si>
-    <t>LIVELLO DEL RISCHIO</t>
-  </si>
-  <si>
     <t>ACCETTABILE</t>
   </si>
   <si>
+    <t>IMPROBABILE</t>
+  </si>
+  <si>
+    <t>BASSO</t>
+  </si>
+  <si>
+    <t>Problemi di scalabilità</t>
+  </si>
+  <si>
+    <t>INTOLLERABILE</t>
+  </si>
+  <si>
+    <t>PROBABILE</t>
+  </si>
+  <si>
+    <t>ESTREMO</t>
+  </si>
+  <si>
+    <t>Implementare autoscaling e monitoraggio delle prestazioni</t>
+  </si>
+  <si>
     <t>TOLLERABILE</t>
   </si>
   <si>
+    <t>POSSIBILE</t>
+  </si>
+  <si>
+    <t>MEDIO</t>
+  </si>
+  <si>
+    <t>Ritardi nello sviluppo</t>
+  </si>
+  <si>
     <t>INDESIDERABILE</t>
   </si>
   <si>
-    <t>INTOLLERABILE</t>
-  </si>
-  <si>
-    <t>IMPROBABILE</t>
-  </si>
-  <si>
-    <t>POSSIBILE</t>
-  </si>
-  <si>
-    <t>PROBABILE</t>
-  </si>
-  <si>
-    <t>BASSO</t>
-  </si>
-  <si>
-    <t>MEDIO</t>
-  </si>
-  <si>
     <t>ALTO</t>
-  </si>
-  <si>
-    <t>ESTREMO</t>
-  </si>
-  <si>
-    <t>Problemi di scalabilità</t>
-  </si>
-  <si>
-    <t>Implementare autoscaling e monitoraggio delle prestazioni</t>
-  </si>
-  <si>
-    <t>Ritardi nello sviluppo</t>
   </si>
   <si>
     <t>Utilizzare metodologie agile, monitoraggio stretto delle tempistiche</t>
@@ -189,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -377,12 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -405,9 +399,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -429,15 +420,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,10 +453,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,7 +778,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="38.140625" style="1" bestFit="1" customWidth="1"/>
@@ -803,485 +796,485 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="39" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="M2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="24.75" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="M2" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>4</v>
+      <c r="F3" s="12"/>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="14" t="s">
+      <c r="G4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="M4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="M5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="M6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="M4" s="18" t="s">
+      <c r="H13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="I13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="14" t="s">
+      <c r="E16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="F16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="M5" s="19" t="s">
+      <c r="H17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="M6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="24.95" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1293,55 +1286,55 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="24.95" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="24.95" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="24.95" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="24.95" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="24.95" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1353,7 +1346,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="24.95" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1365,7 +1358,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="24.95" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1377,7 +1370,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="24.95" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1389,7 +1382,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="24.95" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1401,7 +1394,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="24.95" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1413,7 +1406,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="24.95" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1425,7 +1418,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="24.95" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1437,7 +1430,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="24.95" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1449,7 +1442,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="24.95" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1461,7 +1454,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="24.95" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1473,7 +1466,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="24.95" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1485,7 +1478,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="24.95" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1497,7 +1490,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="24.95" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1509,7 +1502,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="24.95" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1521,7 +1514,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="24.95" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1533,7 +1526,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="24.95" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1545,7 +1538,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="24.95" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1557,7 +1550,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="24.95" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1569,7 +1562,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="24.95" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1581,7 +1574,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="24.95" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1593,7 +1586,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="24.95" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1605,7 +1598,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="24.95" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1617,7 +1610,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="24.95" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1629,7 +1622,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="24.95" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1641,7 +1634,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="24.95" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1653,7 +1646,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="24.95" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1665,7 +1658,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="24.95" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1677,7 +1670,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="24.95" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1689,7 +1682,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="24.95" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1701,7 +1694,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="24.95" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1713,7 +1706,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="24.95" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1725,7 +1718,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="24.95" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1737,7 +1730,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="24.95" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1749,7 +1742,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="24.95" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1761,7 +1754,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="24.95" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1773,7 +1766,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="24.95" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1785,7 +1778,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="24.95" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1797,7 +1790,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="24.95" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1809,7 +1802,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="24.95" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1821,7 +1814,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="24.95" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1833,7 +1826,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="24.95" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1845,7 +1838,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="24.95" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1857,7 +1850,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="24.95" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1869,7 +1862,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="24.95" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1881,7 +1874,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="24.95" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1893,7 +1886,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="24.95" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1905,7 +1898,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="24.95" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1917,7 +1910,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="24.95" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1929,7 +1922,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="24.95" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1941,7 +1934,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="24.95" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1953,7 +1946,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="24.95" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1965,7 +1958,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="24.95" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1977,7 +1970,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="24.95" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1989,7 +1982,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="24.95" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2001,7 +1994,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="24.95" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2013,7 +2006,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="24.95" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2025,7 +2018,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="24.95" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2037,7 +2030,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="24.95" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2049,7 +2042,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="24.95" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2061,7 +2054,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="24.95" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2073,7 +2066,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="24.95" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2085,7 +2078,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="24.95" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2097,7 +2090,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="24.95" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2109,7 +2102,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="24.95" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2121,7 +2114,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="24.95" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2133,7 +2126,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="24.95" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2145,7 +2138,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="24.95" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2157,7 +2150,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="24.95" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2169,7 +2162,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="24.95" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2181,7 +2174,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="24.95" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2193,7 +2186,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="24.95" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2205,7 +2198,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="24.95" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2217,7 +2210,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="24.95" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2229,7 +2222,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="24.95" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2241,7 +2234,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="24.95" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2253,7 +2246,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="24.95" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2265,7 +2258,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="24.95" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2277,7 +2270,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="24.95" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2289,7 +2282,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="24.95" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2301,7 +2294,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="24.95" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2313,7 +2306,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="24.95" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2325,7 +2318,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="24.95" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2337,7 +2330,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="24.95" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2349,7 +2342,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="24.95" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2361,7 +2354,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="24.95" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2373,7 +2366,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="24.95" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2385,7 +2378,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="24.95" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2397,7 +2390,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="24.95" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2409,7 +2402,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="24.95" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2421,7 +2414,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" ht="24.95" customHeight="1">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2432,7 +2425,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" ht="24.95" customHeight="1">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
